--- a/24c - Spike - Performance Measurement/Spike 24 results.xlsx
+++ b/24c - Spike - Performance Measurement/Spike 24 results.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benho\Documents\Uni-Work\COS30031-103024841\24c - Spike - Performance Measurement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC86161-6450-4E3E-B32D-BC2BAAB36771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C5A4BD-86B4-48EF-AFB6-71D2D74190B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1384FB0F-FE1E-4D09-AAC5-4719FCE4A392}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1384FB0F-FE1E-4D09-AAC5-4719FCE4A392}"/>
   </bookViews>
   <sheets>
-    <sheet name="measurement" sheetId="1" r:id="rId1"/>
+    <sheet name="Measurement" sheetId="1" r:id="rId1"/>
     <sheet name="Scalability" sheetId="2" r:id="rId2"/>
+    <sheet name="Repeatbility" sheetId="3" r:id="rId3"/>
+    <sheet name="Compiler" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>File size 100</t>
   </si>
@@ -70,6 +72,18 @@
   </si>
   <si>
     <t>file 100000</t>
+  </si>
+  <si>
+    <t>file size 1000</t>
+  </si>
+  <si>
+    <t>runs</t>
+  </si>
+  <si>
+    <t>debug file 1000</t>
+  </si>
+  <si>
+    <t>release file 1000</t>
   </si>
 </sst>
 </file>
@@ -216,7 +230,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>measurement!$A$3</c:f>
+              <c:f>Measurement!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -249,7 +263,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>measurement!$B$2:$E$2</c:f>
+              <c:f>Measurement!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -270,21 +284,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>measurement!$B$3:$E$3</c:f>
+              <c:f>Measurement!$B$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.4169999999999998</c:v>
+                  <c:v>5417</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2430000000000003</c:v>
+                  <c:v>5243</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2450000000000001</c:v>
+                  <c:v>5245</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1790000000000003</c:v>
+                  <c:v>5179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -301,7 +315,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>measurement!$A$4</c:f>
+              <c:f>Measurement!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -334,7 +348,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>measurement!$B$2:$E$2</c:f>
+              <c:f>Measurement!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -355,21 +369,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>measurement!$B$4:$E$4</c:f>
+              <c:f>Measurement!$B$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.181</c:v>
+                  <c:v>1181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0660000000000001</c:v>
+                  <c:v>1066</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2130000000000001</c:v>
+                  <c:v>1213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2989999999999999</c:v>
+                  <c:v>1299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -386,7 +400,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>measurement!$A$5</c:f>
+              <c:f>Measurement!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -419,7 +433,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>measurement!$B$2:$E$2</c:f>
+              <c:f>Measurement!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -440,21 +454,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>measurement!$B$5:$E$5</c:f>
+              <c:f>Measurement!$B$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.0469999999999997</c:v>
+                  <c:v>4047</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.827</c:v>
+                  <c:v>3827</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8559999999999999</c:v>
+                  <c:v>3856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8439999999999999</c:v>
+                  <c:v>3844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,6 +1296,2330 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>String</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Search (20 function runs)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Repeatbility!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>38632</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39417</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40732</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37171</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37275</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39373</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38367</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42720</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39381</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37122</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37480</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46339</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39035</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40214</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39157</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38764</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39749</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-83EE-4100-AA7B-040DCC9BB29B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="78879759"/>
+        <c:axId val="59537311"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="78879759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59537311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="59537311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78879759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t>Inside-Out (20 function runs)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Repeatbility!$C$3:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>18074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10931</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10751</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11239</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11072</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11063</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11709</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12633</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12028</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11363</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11934</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12081</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16903</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21055</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12908</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11235</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11737</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DA4C-4E39-B249-54DEE0F1F9F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="78879759"/>
+        <c:axId val="59537311"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="78879759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59537311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="59537311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78879759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t>Simple Loop (20 function runs)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Repeatbility!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>54159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54561</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61713</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53880</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55213</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57394</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52071</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65370</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93091</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51934</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60357</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60796</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51468</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53314</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56248</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>77733</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C823-4389-856E-9E1405003886}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="78879759"/>
+        <c:axId val="59537311"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="78879759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59537311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="59537311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78879759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Simple</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Loop</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42575678040244974"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Debug</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Compiler!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>51756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DDF-4226-A248-0804FBFBA734}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Release</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Compiler!$H$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1371</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1746</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2DDF-4226-A248-0804FBFBA734}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="182308159"/>
+        <c:axId val="182299519"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="182308159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182299519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="182299519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182308159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Inside Out</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42575678040244974"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Debug</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Compiler!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11254</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16049</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B596-4E9C-BD29-FFCA91C05EE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Release</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Compiler!$H$10:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>467</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B596-4E9C-BD29-FFCA91C05EE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="182308159"/>
+        <c:axId val="182299519"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="182308159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182299519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="182299519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182308159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Simple</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Loop</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42575678040244974"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Debug</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Compiler!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>41140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44765</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D0E-465F-944B-81042401421C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Release</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Compiler!$H$11:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4165</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4226</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3870</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D0E-465F-944B-81042401421C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="182308159"/>
+        <c:axId val="182299519"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="182308159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182299519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="182299519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182308159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1362,6 +3700,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2362,6 +4940,3102 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2455,6 +8129,240 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC2DCCE-6934-9868-C862-267C8D8A9B11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BA7EAB-9826-483E-8439-A6069EED27E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B4473FD-CEF0-474A-8945-2B93ED064CD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2639385-43C1-EF12-8282-B602485E3D6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FA593B7-0831-4D86-AAA8-1198B1223F5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5A65D31-918E-4881-9E44-68D6E7EB9CA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2783,7 +8691,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:E5"/>
+      <selection activeCell="E5" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2818,16 +8726,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.4169999999999998</v>
+        <v>5417</v>
       </c>
       <c r="C3">
-        <v>5.2430000000000003</v>
+        <v>5243</v>
       </c>
       <c r="D3">
-        <v>5.2450000000000001</v>
+        <v>5245</v>
       </c>
       <c r="E3">
-        <v>5.1790000000000003</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2835,16 +8743,16 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1.181</v>
+        <v>1181</v>
       </c>
       <c r="C4">
-        <v>1.0660000000000001</v>
+        <v>1066</v>
       </c>
       <c r="D4">
-        <v>1.2130000000000001</v>
+        <v>1213</v>
       </c>
       <c r="E4">
-        <v>1.2989999999999999</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2852,16 +8760,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.0469999999999997</v>
+        <v>4047</v>
       </c>
       <c r="C5">
-        <v>3.827</v>
+        <v>3827</v>
       </c>
       <c r="D5">
-        <v>3.8559999999999999</v>
+        <v>3856</v>
       </c>
       <c r="E5">
-        <v>3.8439999999999999</v>
+        <v>3844</v>
       </c>
     </row>
   </sheetData>
@@ -2874,8 +8782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F135334-F4BA-43AC-A24D-8BEA4049FD5D}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3177,4 +9085,485 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A55652B-6663-4E96-87DF-56EAB1E6EA92}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>54159</v>
+      </c>
+      <c r="C3">
+        <v>18074</v>
+      </c>
+      <c r="D3">
+        <v>38632</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>54561</v>
+      </c>
+      <c r="C4">
+        <v>10931</v>
+      </c>
+      <c r="D4">
+        <v>48934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>56201</v>
+      </c>
+      <c r="C5">
+        <v>10931</v>
+      </c>
+      <c r="D5">
+        <v>39417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>61713</v>
+      </c>
+      <c r="C6">
+        <v>10751</v>
+      </c>
+      <c r="D6">
+        <v>40732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>53880</v>
+      </c>
+      <c r="C7">
+        <v>11239</v>
+      </c>
+      <c r="D7">
+        <v>37171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>55213</v>
+      </c>
+      <c r="C8">
+        <v>10983</v>
+      </c>
+      <c r="D8">
+        <v>37275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>57303</v>
+      </c>
+      <c r="C9">
+        <v>11072</v>
+      </c>
+      <c r="D9">
+        <v>39373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>57394</v>
+      </c>
+      <c r="C10">
+        <v>11063</v>
+      </c>
+      <c r="D10">
+        <v>38367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>52071</v>
+      </c>
+      <c r="C11">
+        <v>11333</v>
+      </c>
+      <c r="D11">
+        <v>42720</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>53798</v>
+      </c>
+      <c r="C12">
+        <v>11709</v>
+      </c>
+      <c r="D12">
+        <v>39381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>65370</v>
+      </c>
+      <c r="C13">
+        <v>12633</v>
+      </c>
+      <c r="D13">
+        <v>37122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>93091</v>
+      </c>
+      <c r="C14">
+        <v>12028</v>
+      </c>
+      <c r="D14">
+        <v>37480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>51934</v>
+      </c>
+      <c r="C15">
+        <v>11363</v>
+      </c>
+      <c r="D15">
+        <v>46339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>55015</v>
+      </c>
+      <c r="C16">
+        <v>11934</v>
+      </c>
+      <c r="D16">
+        <v>39035</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>60357</v>
+      </c>
+      <c r="C17">
+        <v>12081</v>
+      </c>
+      <c r="D17">
+        <v>40214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>60796</v>
+      </c>
+      <c r="C18">
+        <v>16903</v>
+      </c>
+      <c r="D18">
+        <v>39157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>51468</v>
+      </c>
+      <c r="C19">
+        <v>21055</v>
+      </c>
+      <c r="D19">
+        <v>41100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>53314</v>
+      </c>
+      <c r="C20">
+        <v>12908</v>
+      </c>
+      <c r="D20">
+        <v>38764</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>56248</v>
+      </c>
+      <c r="C21">
+        <v>11235</v>
+      </c>
+      <c r="D21">
+        <v>39749</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>77733</v>
+      </c>
+      <c r="C22">
+        <v>11737</v>
+      </c>
+      <c r="D22">
+        <v>37538</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941ACD1D-4CA7-4B34-967F-30CC36F6B77A}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>51756</v>
+      </c>
+      <c r="C3">
+        <v>56011</v>
+      </c>
+      <c r="D3">
+        <v>60168</v>
+      </c>
+      <c r="E3">
+        <v>63401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>20777</v>
+      </c>
+      <c r="C4">
+        <v>12675</v>
+      </c>
+      <c r="D4">
+        <v>11254</v>
+      </c>
+      <c r="E4">
+        <v>16049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>41140</v>
+      </c>
+      <c r="C5">
+        <v>44765</v>
+      </c>
+      <c r="D5">
+        <v>38191</v>
+      </c>
+      <c r="E5">
+        <v>38064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1698</v>
+      </c>
+      <c r="I9">
+        <v>1371</v>
+      </c>
+      <c r="J9">
+        <v>1210</v>
+      </c>
+      <c r="K9">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>284</v>
+      </c>
+      <c r="I10">
+        <v>270</v>
+      </c>
+      <c r="J10">
+        <v>268</v>
+      </c>
+      <c r="K10">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>4165</v>
+      </c>
+      <c r="I11">
+        <v>4226</v>
+      </c>
+      <c r="J11">
+        <v>3870</v>
+      </c>
+      <c r="K11">
+        <v>4163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/24c - Spike - Performance Measurement/Spike 24 results.xlsx
+++ b/24c - Spike - Performance Measurement/Spike 24 results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benho\Documents\Uni-Work\COS30031-103024841\24c - Spike - Performance Measurement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C5A4BD-86B4-48EF-AFB6-71D2D74190B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2ED265-0BE9-4BDB-972E-13C09125160A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1384FB0F-FE1E-4D09-AAC5-4719FCE4A392}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
   <si>
     <t>File size 100</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>release file 1000</t>
+  </si>
+  <si>
+    <t>percent change</t>
   </si>
 </sst>
 </file>
@@ -657,7 +660,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-AU" baseline="0"/>
-                  <a:t> (milliseconds)</a:t>
+                  <a:t> (microseconds)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-AU"/>
               </a:p>
@@ -902,7 +905,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Scalability!$I$3</c:f>
+              <c:f>Scalability!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -923,7 +926,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Scalability!$J$2:$L$2</c:f>
+              <c:f>Scalability!$B$20:$D$20</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -940,7 +943,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scalability!$J$3:$L$3</c:f>
+              <c:f>Scalability!$B$21:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -967,7 +970,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Scalability!$I$4</c:f>
+              <c:f>Scalability!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -988,7 +991,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Scalability!$J$2:$L$2</c:f>
+              <c:f>Scalability!$B$20:$D$20</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1005,7 +1008,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scalability!$J$4:$L$4</c:f>
+              <c:f>Scalability!$B$22:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1032,7 +1035,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Scalability!$I$5</c:f>
+              <c:f>Scalability!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1053,7 +1056,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Scalability!$J$2:$L$2</c:f>
+              <c:f>Scalability!$B$20:$D$20</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1070,7 +1073,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scalability!$J$5:$L$5</c:f>
+              <c:f>Scalability!$B$23:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2548,7 +2551,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Compiler!$H$9:$K$9</c:f>
+              <c:f>Compiler!$B$9:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2960,7 +2963,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Compiler!$H$10:$K$10</c:f>
+              <c:f>Compiler!$B$10:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3377,7 +3380,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Compiler!$H$11:$K$11</c:f>
+              <c:f>Compiler!$B$11:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8100,16 +8103,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>538162</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8691,7 +8694,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="A2:E5"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8705,9 +8708,6 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
         <v>1</v>
       </c>
@@ -8780,10 +8780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F135334-F4BA-43AC-A24D-8BEA4049FD5D}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8794,15 +8794,12 @@
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8818,17 +8815,8 @@
       <c r="E2">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8844,23 +8832,8 @@
       <c r="E3">
         <v>69048</v>
       </c>
-      <c r="I3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
-        <f>AVERAGE(B3:E3)</f>
-        <v>56365</v>
-      </c>
-      <c r="K3" s="1">
-        <f>AVERAGE(B9:E9)</f>
-        <v>614813.75</v>
-      </c>
-      <c r="L3" s="1">
-        <f>AVERAGE(B15:E15)</f>
-        <v>6140805.75</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -8876,23 +8849,8 @@
       <c r="E4">
         <v>10539</v>
       </c>
-      <c r="I4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="1">
-        <f>AVERAGE(B4:E4)</f>
-        <v>10641.25</v>
-      </c>
-      <c r="K4" s="1">
-        <f>AVERAGE(B10:E10)</f>
-        <v>105248.25</v>
-      </c>
-      <c r="L4" s="1">
-        <f>AVERAGE(B16:E16)</f>
-        <v>1051071.75</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8908,32 +8866,17 @@
       <c r="E5">
         <v>37034</v>
       </c>
-      <c r="I5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="1">
-        <f>AVERAGE(B5:E5)</f>
-        <v>37192</v>
-      </c>
-      <c r="K5" s="1">
-        <f>AVERAGE(B11:E11)</f>
-        <v>359314.5</v>
-      </c>
-      <c r="L5" s="1">
-        <f>AVERAGE(B17:E17)</f>
-        <v>3620840.5</v>
-      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -8951,7 +8894,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -8968,7 +8911,7 @@
         <v>617384</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -8985,7 +8928,7 @@
         <v>105304</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -9002,16 +8945,16 @@
         <v>358631</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -9029,7 +8972,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -9046,7 +8989,7 @@
         <v>6119625</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -9078,6 +9021,73 @@
       </c>
       <c r="E17">
         <v>3670944</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <f>AVERAGE(B3:E3)</f>
+        <v>56365</v>
+      </c>
+      <c r="C21" s="1">
+        <f>AVERAGE(B9:E9)</f>
+        <v>614813.75</v>
+      </c>
+      <c r="D21" s="1">
+        <f>AVERAGE(B15:E15)</f>
+        <v>6140805.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <f>AVERAGE(B4:E4)</f>
+        <v>10641.25</v>
+      </c>
+      <c r="C22" s="1">
+        <f>AVERAGE(B10:E10)</f>
+        <v>105248.25</v>
+      </c>
+      <c r="D22" s="1">
+        <f>AVERAGE(B16:E16)</f>
+        <v>1051071.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <f>AVERAGE(B5:E5)</f>
+        <v>37192</v>
+      </c>
+      <c r="C23" s="1">
+        <f>AVERAGE(B11:E11)</f>
+        <v>359314.5</v>
+      </c>
+      <c r="D23" s="1">
+        <f>AVERAGE(B17:E17)</f>
+        <v>3620840.5</v>
       </c>
     </row>
   </sheetData>
@@ -9092,7 +9102,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9409,10 +9419,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941ACD1D-4CA7-4B34-967F-30CC36F6B77A}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9420,14 +9430,15 @@
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -9440,8 +9451,11 @@
       <c r="E2">
         <v>4</v>
       </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9457,8 +9471,19 @@
       <c r="E3">
         <v>63401</v>
       </c>
+      <c r="F3">
+        <f>AVERAGE(B3:E3)</f>
+        <v>57834</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <f>F9/F3*100</f>
+        <v>2.6044368364629804</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -9474,8 +9499,19 @@
       <c r="E4">
         <v>16049</v>
       </c>
+      <c r="F4">
+        <f>AVERAGE(B4:E4)</f>
+        <v>15188.75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I5" si="0">F10/F4*100</f>
+        <v>2.1216360793350342</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -9491,75 +9527,98 @@
       <c r="E5">
         <v>38064</v>
       </c>
+      <c r="F5">
+        <f>AVERAGE(B5:E5)</f>
+        <v>40540</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>10.128268376911691</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="J8">
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="K8">
+      <c r="E8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="H9">
+      <c r="B9">
         <v>1698</v>
       </c>
-      <c r="I9">
+      <c r="C9">
         <v>1371</v>
       </c>
-      <c r="J9">
+      <c r="D9">
         <v>1210</v>
       </c>
-      <c r="K9">
+      <c r="E9">
         <v>1746</v>
       </c>
+      <c r="F9">
+        <f>AVERAGE(B9:E9)</f>
+        <v>1506.25</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="H10">
+      <c r="B10">
         <v>284</v>
       </c>
-      <c r="I10">
+      <c r="C10">
         <v>270</v>
       </c>
-      <c r="J10">
+      <c r="D10">
         <v>268</v>
       </c>
-      <c r="K10">
+      <c r="E10">
         <v>467</v>
       </c>
+      <c r="F10">
+        <f>AVERAGE(B10:E10)</f>
+        <v>322.25</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="H11">
+      <c r="B11">
         <v>4165</v>
       </c>
-      <c r="I11">
+      <c r="C11">
         <v>4226</v>
       </c>
-      <c r="J11">
+      <c r="D11">
         <v>3870</v>
       </c>
-      <c r="K11">
+      <c r="E11">
         <v>4163</v>
+      </c>
+      <c r="F11">
+        <f>AVERAGE(B11:E11)</f>
+        <v>4106</v>
       </c>
     </row>
   </sheetData>
